--- a/data/CreateLead.xlsx
+++ b/data/CreateLead.xlsx
@@ -366,45 +366,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>